--- a/doc/Planification.xlsx
+++ b/doc/Planification.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\var\www\html\AntiObliviate\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9A4936-FBD4-4B2C-8B38-01C97CA80167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F3A360-3C1F-4B1C-B4AC-835C162E20EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
   <si>
     <t>Tâches à réaliser</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Planification des tâches</t>
   </si>
   <si>
-    <t>Jour 2</t>
-  </si>
-  <si>
     <t>Configuration de l'environnement de développement</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t xml:space="preserve">Documentation </t>
   </si>
   <si>
-    <t>Jour 3</t>
-  </si>
-  <si>
     <t>Création des migrations et des modèles</t>
   </si>
   <si>
@@ -207,16 +201,10 @@
     <t>Création des protocoles de test</t>
   </si>
   <si>
-    <t>Jour 4</t>
-  </si>
-  <si>
     <t>Continuation de la création des contrôleurs et des méthodes associées</t>
   </si>
   <si>
     <t xml:space="preserve">Test </t>
-  </si>
-  <si>
-    <t>Jour 5</t>
   </si>
   <si>
     <t>Création d'un service pour interagir avec l'API</t>
@@ -228,22 +216,13 @@
     <t>Début du développement front-end</t>
   </si>
   <si>
-    <t>Jour 6</t>
-  </si>
-  <si>
     <t>Création des vues et des templates Blade</t>
   </si>
   <si>
     <t>Intégration du CSS et du JavaScript</t>
   </si>
   <si>
-    <t>Jour 7</t>
-  </si>
-  <si>
     <t>Implémentation des fonctionnalités de filtrage et de tri</t>
-  </si>
-  <si>
-    <t>Jour 8</t>
   </si>
   <si>
     <t>Mise en place de l'authentification avec Laravel</t>
@@ -255,19 +234,10 @@
     <t>Finition du front-end</t>
   </si>
   <si>
-    <t>Jour 9</t>
-  </si>
-  <si>
     <t>Implémentation globale</t>
   </si>
   <si>
-    <t>Jour 10</t>
-  </si>
-  <si>
     <t>Finition des détails du site</t>
-  </si>
-  <si>
-    <t>Jour 11</t>
   </si>
 </sst>
 </file>
@@ -277,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +262,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -308,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -493,11 +469,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -555,12 +546,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="155">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -886,6 +879,862 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6D9F0"/>
+          <bgColor rgb="FFC6D9F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -896,6 +1745,22 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -907,72 +1772,18 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB8CCE4"/>
-          <bgColor rgb="FFB8CCE4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB8CCE4"/>
-          <bgColor rgb="FFB8CCE4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB8CCE4"/>
-          <bgColor rgb="FFB8CCE4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB8CCE4"/>
-          <bgColor rgb="FFB8CCE4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB8CCE4"/>
-          <bgColor rgb="FFB8CCE4"/>
-        </patternFill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
@@ -986,25 +1797,9 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFC6D9F0"/>
-          <bgColor rgb="FFC6D9F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
+          <fgColor rgb="FFB8CCE4"/>
+          <bgColor rgb="FFB8CCE4"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -1226,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1028"/>
+  <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1324,7 +2119,9 @@
       <c r="B3" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D3" s="31"/>
       <c r="E3" s="30"/>
       <c r="F3" s="31"/>
@@ -1337,7 +2134,7 @@
       <c r="M3" s="33"/>
       <c r="N3" s="10">
         <f>SUM(C3:M3)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1347,7 +2144,9 @@
       <c r="B4" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D4" s="34"/>
       <c r="E4" s="30"/>
       <c r="F4" s="34"/>
@@ -1360,7 +2159,7 @@
       <c r="M4" s="35"/>
       <c r="N4" s="10">
         <f>SUM(C4:M4)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1370,7 +2169,9 @@
       <c r="B5" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D5" s="34"/>
       <c r="E5" s="30"/>
       <c r="F5" s="34"/>
@@ -1382,8 +2183,8 @@
       <c r="L5" s="30"/>
       <c r="M5" s="35"/>
       <c r="N5" s="10">
-        <f t="shared" ref="N5:N13" si="0">SUM(C5:M5)</f>
-        <v>0</v>
+        <f t="shared" ref="N5:N26" si="0">SUM(C5:M5)</f>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1393,7 +2194,9 @@
       <c r="B6" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="12"/>
       <c r="F6" s="10"/>
@@ -1406,16 +2209,20 @@
       <c r="M6" s="13"/>
       <c r="N6" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
+      <c r="D7" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="10"/>
       <c r="G7" s="12"/>
@@ -1427,7 +2234,7 @@
       <c r="M7" s="13"/>
       <c r="N7" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1435,10 +2242,12 @@
         <v>48</v>
       </c>
       <c r="B8" s="11">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C8" s="12"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="F8" s="10"/>
       <c r="G8" s="12"/>
@@ -1450,7 +2259,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1458,34 +2267,38 @@
         <v>49</v>
       </c>
       <c r="B9" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12"/>
+        <v>0.125</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="E9" s="14"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="12"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="12"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="13"/>
       <c r="N9" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="11">
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F10" s="10"/>
       <c r="G10" s="14"/>
       <c r="H10" s="10"/>
@@ -1496,40 +2309,46 @@
       <c r="M10" s="13"/>
       <c r="N10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="11">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="13"/>
+      <c r="A11" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="29">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="30">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="35"/>
       <c r="N11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="B12" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="C12" s="14"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="14"/>
       <c r="H12" s="10"/>
@@ -1540,151 +2359,165 @@
       <c r="M12" s="13"/>
       <c r="N12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C13" s="14"/>
+        <v>0.25</v>
+      </c>
+      <c r="C13" s="12"/>
       <c r="D13" s="10"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="14"/>
+      <c r="F13" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="12"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="14"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="14"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="13"/>
       <c r="N13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="29">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="35"/>
+      <c r="A14" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="13"/>
       <c r="N14" s="10">
-        <f>SUM(C14:M14)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="11">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C15" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="B15" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C15" s="12"/>
       <c r="D15" s="10"/>
       <c r="E15" s="12"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="14"/>
+      <c r="G15" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="14"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="13"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="35"/>
       <c r="N15" s="10">
-        <f t="shared" ref="N15:N54" si="1">SUM(C15:M15)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="11">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C16" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="B16" s="29">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C16" s="12"/>
       <c r="D16" s="10"/>
       <c r="E16" s="12"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="15"/>
+      <c r="G16" s="30">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="H16" s="10"/>
-      <c r="I16" s="14"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="13"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="35"/>
       <c r="N16" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C17" s="12"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="10"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="14"/>
+      <c r="H17" s="30">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I17" s="12"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="14"/>
+      <c r="L17" s="12"/>
       <c r="M17" s="13"/>
       <c r="N17" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="11">
-        <v>0.25</v>
+        <v>60</v>
+      </c>
+      <c r="B18" s="29">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="10"/>
       <c r="E18" s="12"/>
       <c r="F18" s="10"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="I18" s="12"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="13"/>
+      <c r="M18" s="35"/>
       <c r="N18" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="11">
-        <v>4.1666666666666664E-2</v>
+        <v>61</v>
+      </c>
+      <c r="B19" s="29">
+        <v>0.16666666666666666</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="10"/>
@@ -1692,798 +2525,344 @@
       <c r="F19" s="10"/>
       <c r="G19" s="12"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="12"/>
+      <c r="I19" s="30">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="13"/>
+      <c r="M19" s="35"/>
       <c r="N19" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="11">
-        <v>4.1666666666666664E-2</v>
+        <v>62</v>
+      </c>
+      <c r="B20" s="29">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="10"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="12"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="J20" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K20" s="12"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="13"/>
+      <c r="M20" s="35"/>
       <c r="N20" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="29"/>
+        <v>63</v>
+      </c>
+      <c r="B21" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="10"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="12"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="J21" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="35"/>
-      <c r="N21" s="10"/>
+      <c r="N21" s="10">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="11">
-        <v>4.1666666666666664E-2</v>
+        <v>64</v>
+      </c>
+      <c r="B22" s="29">
+        <v>0.125</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="10"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="J22" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="13"/>
+      <c r="M22" s="35"/>
       <c r="N22" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.125</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B23" s="29">
-        <v>4.1666666666666664E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="10"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="30">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="L23" s="12"/>
       <c r="M23" s="35"/>
       <c r="N23" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B24" s="29">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="10"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="10"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="M24" s="35"/>
       <c r="N24" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B25" s="29">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="10"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="10"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="35"/>
+      <c r="M25" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="N25" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B26" s="29">
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="10"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="35"/>
+      <c r="F26" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G26" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H26" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I26" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J26" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K26" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L26" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M26" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="N26" s="10">
-        <f>SUM(C25:M25)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="29"/>
+        <v>50</v>
+      </c>
+      <c r="B27" s="41">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="10"/>
+      <c r="D27" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E27" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F27" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G27" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H27" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I27" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="L27" s="30">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="M27" s="30">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" ref="N27" si="1">SUM(C27:M27)</f>
+        <v>0.91666666666666674</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="11">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B28" s="42">
+        <f>SUM(B2:B27)</f>
+        <v>3.666666666666667</v>
+      </c>
+      <c r="C28" s="42">
+        <f>SUM(C2:C27)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D28" s="42">
+        <f>SUM(D2:D27)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E28" s="42">
+        <f>SUM(E2:E27)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F28" s="42">
+        <f>SUM(F2:F27)</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="G28" s="42">
+        <f>SUM(G2:G27)</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="H28" s="42">
+        <f>SUM(H2:H27)</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="I28" s="42">
+        <f>SUM(I2:I27)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J28" s="42">
+        <f>SUM(J2:J27)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K28" s="42">
+        <f>SUM(K2:K27)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L28" s="42">
+        <f>SUM(L2:L27)</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="M28" s="42">
+        <f>SUM(M2:M27)</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="N28" s="43"/>
     </row>
     <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="29">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="10"/>
-    </row>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="29">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="10"/>
-    </row>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="29">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="10"/>
-    </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="29">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="10"/>
-    </row>
-    <row r="34" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="29">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="11">
-        <v>0.125</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="10"/>
-    </row>
-    <row r="37" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="29">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="10"/>
-    </row>
-    <row r="38" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="29">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="10"/>
-    </row>
-    <row r="39" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="29">
-        <v>0.125</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="10"/>
-    </row>
-    <row r="40" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="29">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="10"/>
-    </row>
-    <row r="41" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="10"/>
-    </row>
-    <row r="42" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="29">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="10"/>
-    </row>
-    <row r="43" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="29">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="10"/>
-    </row>
-    <row r="44" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="29">
-        <v>0.125</v>
-      </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="10"/>
-    </row>
-    <row r="45" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="10"/>
-    </row>
-    <row r="46" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="29">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="10"/>
-    </row>
-    <row r="47" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="29">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="10"/>
-    </row>
-    <row r="48" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="29">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="10"/>
-    </row>
-    <row r="49" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="10"/>
-    </row>
-    <row r="50" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="29">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="10"/>
-    </row>
-    <row r="51" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="29">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="10"/>
-    </row>
-    <row r="52" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="29">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="10"/>
-    </row>
-    <row r="53" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="10">
-        <f t="shared" ref="B55:M55" si="2">SUM(B2:B54)</f>
+      <c r="M29" s="10">
+        <f>SUM(C28:M28)</f>
+        <v>3.6666666666666679</v>
+      </c>
+      <c r="N29" s="10">
+        <f>SUM(N2:N27)</f>
         <v>3.666666666666667</v>
       </c>
-      <c r="C55" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D55" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I55" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M56" s="10">
-        <f>SUM(C55:M55)</f>
-        <v>0</v>
-      </c>
-      <c r="N56" s="10">
-        <f>SUM(N2:N54)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3421,107 +3800,585 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1007" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1008" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1009" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1010" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1011" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1012" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1013" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1014" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1015" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1016" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1017" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1018" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1019" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1020" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1021" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1022" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1023" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1024" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1025" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1026" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1027" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1028" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <conditionalFormatting sqref="C2:M54">
-    <cfRule type="cellIs" dxfId="53" priority="23" operator="greaterThan">
+  <conditionalFormatting sqref="C2:M3 C6:M10 C12:M27">
+    <cfRule type="cellIs" dxfId="154" priority="203" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="24" operator="greaterThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:M3 I4:I19 M25:M27 D20:D27 F20:F26 H20:I26 C4:C27 E4:E27 G4:G27 J20:K27 L4:L27">
+    <cfRule type="cellIs" dxfId="153" priority="202" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:M27">
+    <cfRule type="cellIs" dxfId="152" priority="216" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="217" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:J13 L6:M13 C15:M54">
-    <cfRule type="cellIs" dxfId="50" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="218" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:M3 K6:K13">
-    <cfRule type="cellIs" dxfId="49" priority="10" operator="greaterThan">
+  <conditionalFormatting sqref="C28:M28">
+    <cfRule type="cellIs" dxfId="149" priority="196" operator="equal">
+      <formula>0.333333333333333</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27 H27 M27">
+    <cfRule type="cellIs" dxfId="148" priority="214" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="cellIs" dxfId="147" priority="210" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N27">
+    <cfRule type="cellIs" dxfId="146" priority="194" operator="equal">
+      <formula>$B2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="145" priority="193" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:M3 I4:I34 C4:C54 E4:E54 G4:G54 L4:L54">
-    <cfRule type="cellIs" dxfId="48" priority="9" operator="greaterThan">
-      <formula>0.00001157407407</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55:M55">
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
-      <formula>0.333333333333333</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D53 J35:J53 F53 H53 M53">
-    <cfRule type="cellIs" dxfId="46" priority="21" operator="greaterThan">
-      <formula>0.00001157407407</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G35:G52">
-    <cfRule type="cellIs" dxfId="45" priority="22" operator="greaterThan">
-      <formula>0.00001157407407</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F52 H35:I52 I53:I54">
-    <cfRule type="cellIs" dxfId="44" priority="17" operator="greaterThan">
-      <formula>0.00001157407407</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35:K53">
-    <cfRule type="cellIs" dxfId="43" priority="12" operator="greaterThan">
-      <formula>0.00001157407407</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N25 N27:N33 N53:N54">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
-      <formula>$B2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N26">
-    <cfRule type="cellIs" dxfId="41" priority="32" operator="equal">
-      <formula>$B25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N34">
-    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
-      <formula>$B35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N35:N52">
-    <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
-      <formula>#REF!</formula>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="cellIs" dxfId="144" priority="192" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="143" priority="191" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="142" priority="190" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="141" priority="189" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="140" priority="187" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="139" priority="186" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="138" priority="185" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="137" priority="184" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="136" priority="183" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="135" priority="180" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="134" priority="179" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="133" priority="178" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="132" priority="171" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="131" priority="170" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="130" priority="169" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="129" priority="162" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="128" priority="161" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="127" priority="160" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="126" priority="159" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="125" priority="158" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="124" priority="157" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="123" priority="156" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="122" priority="155" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="121" priority="154" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="120" priority="153" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="119" priority="152" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="118" priority="151" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="117" priority="150" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="116" priority="149" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="cellIs" dxfId="115" priority="136" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="cellIs" dxfId="114" priority="135" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="cellIs" dxfId="113" priority="134" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="cellIs" dxfId="112" priority="133" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="cellIs" dxfId="111" priority="122" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="cellIs" dxfId="110" priority="121" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="cellIs" dxfId="109" priority="107" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="cellIs" dxfId="108" priority="106" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="cellIs" dxfId="107" priority="105" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="cellIs" dxfId="106" priority="104" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="cellIs" dxfId="105" priority="103" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="cellIs" dxfId="104" priority="102" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="cellIs" dxfId="103" priority="101" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="cellIs" dxfId="102" priority="100" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="cellIs" dxfId="101" priority="99" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="cellIs" dxfId="100" priority="98" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="cellIs" dxfId="99" priority="97" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="cellIs" dxfId="98" priority="96" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="cellIs" dxfId="97" priority="95" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="cellIs" dxfId="96" priority="75" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="cellIs" dxfId="95" priority="74" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="cellIs" dxfId="94" priority="73" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="cellIs" dxfId="93" priority="72" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="cellIs" dxfId="92" priority="71" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M25">
+    <cfRule type="cellIs" dxfId="91" priority="53" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M25">
+    <cfRule type="cellIs" dxfId="90" priority="52" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M25">
+    <cfRule type="cellIs" dxfId="89" priority="51" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M25">
+    <cfRule type="cellIs" dxfId="88" priority="50" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M25">
+    <cfRule type="cellIs" dxfId="87" priority="49" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="cellIs" dxfId="86" priority="48" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="cellIs" dxfId="85" priority="47" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="cellIs" dxfId="84" priority="46" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="cellIs" dxfId="83" priority="45" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="cellIs" dxfId="82" priority="44" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="cellIs" dxfId="81" priority="43" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="cellIs" dxfId="80" priority="42" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="cellIs" dxfId="79" priority="41" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="cellIs" dxfId="78" priority="40" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="cellIs" dxfId="77" priority="39" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="cellIs" dxfId="76" priority="38" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="75" priority="37" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="74" priority="36" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="cellIs" dxfId="73" priority="35" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="cellIs" dxfId="72" priority="34" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="cellIs" dxfId="71" priority="33" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
+    <cfRule type="cellIs" dxfId="70" priority="32" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="cellIs" dxfId="69" priority="31" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="68" priority="30" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="67" priority="29" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" dxfId="66" priority="28" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" dxfId="65" priority="27" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" dxfId="64" priority="26" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="63" priority="25" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="62" priority="24" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="61" priority="23" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="60" priority="22" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="59" priority="21" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="58" priority="20" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="57" priority="19" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="cellIs" dxfId="56" priority="18" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="cellIs" dxfId="55" priority="17" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="cellIs" dxfId="54" priority="16" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
+    <cfRule type="cellIs" dxfId="53" priority="15" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
+    <cfRule type="cellIs" dxfId="52" priority="14" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
+    <cfRule type="cellIs" dxfId="51" priority="13" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
+    <cfRule type="cellIs" dxfId="50" priority="12" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
+    <cfRule type="cellIs" dxfId="49" priority="11" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
+    <cfRule type="cellIs" dxfId="48" priority="10" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27">
+    <cfRule type="cellIs" dxfId="47" priority="9" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27">
+    <cfRule type="cellIs" dxfId="46" priority="8" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27">
+    <cfRule type="cellIs" dxfId="45" priority="7" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27">
+    <cfRule type="cellIs" dxfId="44" priority="6" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27">
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="greaterThan">
+      <formula>0.00001157407407</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
+      <formula>0.00001157407407</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5238,7 +6095,7 @@
   <dimension ref="A1:AA1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
